--- a/01_literature/IKD_Literature_Master.xlsx
+++ b/01_literature/IKD_Literature_Master.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Master" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Master" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,106 +422,6418 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>RecordID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Publisher</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Venue</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Authors</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Organizations</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>DOI</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>DocType</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>DeviceType</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Method</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>EnablerCategory</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>MaterialSystem</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Node/Geometry</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>KeyContribution</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>EvidenceSnippet</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>TagConfidence</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>AddedDate</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hydrogen-terminated diamond FET and GaN HEMT delivering CMOS inverter operation at high-temperature</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2020 Device Research Conference (DRC)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Ren, Chenhao; Malakoutian, Mohamadali; Li, Siwei; Chowdhury, Srabanti</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>10.1109/drc50226.2020.9135152</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/drc50226.2020.9135152</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Hydrogen-terminated diamond FET and GaN HEMT delivering CMOS inverter operation at high-temperature</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Numerical Simulation of CMOS Inverter using Gallium Nitride (GaN)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025 5th International Conference on Trends in Material Science and Inventive Materials (ICTMIM)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Sentamilselvi, M.; K, Kavimani; J, Logeshwaran; T, Manoj M.; R, Mohanaprasath K.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>10.1109/ictmim65579.2025.10988347</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/ictmim65579.2025.10988347</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Inverter</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Numerical Simulation of CMOS Inverter using Gallium Nitride (GaN)</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>P-type NiOX dielectric-based CMOS inverter logic gate using enhancement-mode GaN nMOS and diamond pMOS transistors</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>AIP Publishing</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Applied Physics Letters</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Patil, Mahalaxmi; Pradhan, Subrat K.; Shukla, Vivek K.; Rai, Padmnabh; Paul, Jayanti; Sheikh, Aaqib H.; Parvez, Bazila; Ganguly, Swaroop; Saha, Kasturi; Saha, Dipankar</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>10.1063/5.0231002</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1063/5.0231002</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>p-FET</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>P-type NiOX dielectric-based CMOS inverter logic gate using enhancement-mode GaN nMOS and diamond pMOS transistors</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GaN-based complementary inverter logic gate using InGaN/GaN superlattice capped enhancement-mode field-effect-transistors</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>IOP Publishing</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Nanotechnology</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Jha, Jaya; Ganguly, Swaroop; Saha, Dipankar</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>10.1088/1361-6528/abfb99</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/1361-6528/abfb99</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>GaN-based complementary inverter logic gate using InGaN/GaN superlattice capped enhancement-mode field-effect-transistors</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fast power switching with cascode diamond MOSFET–SiC MOSFET/GaN HEMT complementary half-bridge inverter</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>AIP Publishing</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>APL Electronic Devices</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kawai, Sora; Oi, Nobutaka; Isobe, Takanori; Ota, Kosuke; Amazutsumi, Koji; Fujishima, Tatsuya; Kawarada, Hiroshi</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>10.1063/5.0290094</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1063/5.0290094</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>p-FET</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Fast power switching with cascode diamond MOSFET–SiC MOSFET/GaN HEMT complementary half-bridge inverter</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GaN‐based complementary metal–oxide–semiconductor inverter with normally off Pch and Nch MOSFETs fabricated using polarisation‐induced holes and electron channels</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Institution of Engineering and Technology (IET)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>IET Power Electronics</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nakajima, Akira; Kubota, Shunsuke; Tsutsui, Kazuo; Kakushima, Kuniyuki; Wakabayashi, Hitoshi; Iwai, Hiroshi; Nishizawa, Shin‐ichi; Ohashi, Hiromichi</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>10.1049/iet-pel.2017.0376</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1049/iet-pel.2017.0376</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>p-FET</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>GaN‐based complementary metal–oxide–semiconductor inverter with normally off Pch and Nch MOSFETs fabricated using polarisation‐induced holes and electron channels</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Design of A GaN Based High Frequency Inverter for Electrosurgery</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Politeknik Dergisi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Politeknik Dergisi</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tarınç, Hale; Çetin, Sevilay</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>10.2339/politeknik.1424645</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2339/politeknik.1424645</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Inverter</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Design of A GaN Based High Frequency Inverter for Electrosurgery</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Reduction of the thermal budget of AlGaN/GaN heterostructures grown on silicon: A step towards monolithic integration of GaN‐HEMTs with CMOS</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Wiley</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>physica status solidi (a)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Comyn, Rémi; Cordier, Yvon; Aimez, Vincent; Maher, Hassan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>10.1002/pssa.201431658</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/pssa.201431658</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Reduction of the thermal budget of AlGaN/GaN heterostructures grown on silicon: A step towards monolithic integration of GaN‐HEMTs with CMOS</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>System Integration in Monolithic GaN</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Springer International Publishing</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Synthesis Lectures on Engineering, Science, and Technology</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kaufmann, Maik Peter; Wicht, Bernhard</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>10.1007/978-3-031-15625-0_4</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-031-15625-0_4</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Co-integration</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>System Integration in Monolithic GaN</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>GaN Power Device Technology and monolithic integrated GaN power systems</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2023 International Conference on IC Design and Technology (ICICDT)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Liu, Wen</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>10.1109/icicdt59917.2023.10332321</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/icicdt59917.2023.10332321</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Co-integration</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>GaN Power Device Technology and monolithic integrated GaN power systems</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Parallel 1024-ch Cyclic Voltammetry on Monolithic CMOS Electrochemical Detector Array</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>openRxiv</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>White, Kevin A.; Mulberry, Geoffrey; Kim, Brian N.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>10.1101/799916</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1101/799916</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Co-integration</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Parallel 1024-ch Cyclic Voltammetry on Monolithic CMOS Electrochemical Detector Array</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Encapsulation of NEM Memory Switches for Monolithic-Three-Dimensional (M3D) CMOS-NEM Hybrid Circuits</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MDPI AG</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Jo, Hyun Chan; Choi, Woo Young</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>10.20944/preprints201805.0454.v1</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.20944/preprints201805.0454.v1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Co-integration</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Encapsulation of NEM Memory Switches for Monolithic-Three-Dimensional (M3D) CMOS-NEM Hybrid Circuits</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Encapsulation of NEM Memory Switches for Monolithic-Three-Dimensional (M3D) CMOS-NEM Hybrid Circuits</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MDPI AG</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Jo, Hyun Chan; Choi, Woo Young</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>10.20944/preprints201805.0454.v2</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.20944/preprints201805.0454.v2</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Co-integration</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Encapsulation of NEM Memory Switches for Monolithic-Three-Dimensional (M3D) CMOS-NEM Hybrid Circuits</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GaN-based complementary inverter logic gate using InGaN/GaN superlattice capped enhancement-mode field-effect-transistors</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>IOP Publishing</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Nanotechnology</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Jha, Jaya; Ganguly, Swaroop; Saha, Dipankar</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>10.1088/1361-6528/abfb99</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/1361-6528/abfb99</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>GaN-based complementary inverter logic gate using InGaN/GaN superlattice capped enhancement-mode field-effect-transistors</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>On the operating speed and energy efficiency of GaN-based monolithic complementary logic circuits for integrated power conversion systems</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Elsevier BV</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Fundamental Research</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Zheng, Zheyang; Xu, Han; Zhang, Li; Chen, Kevin J.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>10.1016/j.fmre.2021.09.015</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.fmre.2021.09.015</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Co-integration</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>On the operating speed and energy efficiency of GaN-based monolithic complementary logic circuits for integrated power conversion systems</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Complementary Proof Nets for Classical Logic</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Cassyni</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Pulcini, Gabriele</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>10.52843/cassyni.clt2kp</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.52843/cassyni.clt2kp</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Co-integration</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Complementary Proof Nets for Classical Logic</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Monolithically integrated GaN-based complementary logic hysteresis comparator for power integration</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>IOP Publishing</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Japanese Journal of Applied Physics</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Geng, Yutao; Chen, Tao; Cheng, Yan; Ng, Yat Hon; Zheng, Zheyang; Chen, Kevin J.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>10.35848/1347-4065/ae29a0</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.35848/1347-4065/ae29a0</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>p-FET</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Monolithically integrated GaN-based complementary logic hysteresis comparator for power integration</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Variant Logic Construction Under Permutation and Complementary Operations on Binary Logic</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Springer Singapore</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Variant Construction from Theoretical Foundation to Applications</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Zheng, Jeffrey</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>10.1007/978-981-13-2282-2_1</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-981-13-2282-2_1</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Co-integration</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Variant Logic Construction Under Permutation and Complementary Operations on Binary Logic</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GaN High Electron Mobility Transistor with Floating Gate for Accurate Threshold Voltage Control</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>The Electrochemical Society</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ECS Meeting Abstracts</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Kosaka, Hayato; Iwata, Hiroki; Watariguchi, Yudai; Shirota, Riichiro; Amemiya, Yoshiteru; Takatani, Shinichiro; Suwa, Tomoyuki; Teramoto, Akinobu</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>10.1149/ma2023-01321844mtgabs</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1149/ma2023-01321844mtgabs</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>GaN High Electron Mobility Transistor with Floating Gate for Accurate Threshold Voltage Control</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>A GaN-based multi-threshold two-finger high electron mobility transistor with reduced third-order nonlinearity by nullification</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>AIP Publishing</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>APL Electronic Devices</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Patil, Mahalaxmi; Sheikh, Aaqib H.; Khalid, Nashra; Chilwirwar, Anurag P.; Parvez, B.; Ganguly, S.; Saha, D.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>10.1063/5.0265870</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1063/5.0265870</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>A GaN-based multi-threshold two-finger high electron mobility transistor with reduced third-order nonlinearity by nullification</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Short-channel effects and TCAD study of hole concentration impact in p-GaN Gate AlGaN/GaN HEMTs</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>IOP Publishing</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Japanese Journal of Applied Physics</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Umeda, Hidekazu; Ueda, Tetsuzo; Mori, Yusuke; Mori, Nobuya</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>10.35848/1347-4065/ae133d</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.35848/1347-4065/ae133d</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Electrostatics</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Short-channel effects and TCAD study of hole concentration impact in p-GaN Gate AlGaN/GaN HEMTs</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Impact of channel mobility on design optimization of 600–3300 V-class high-speed GaN vertical-trench MOSFETs based on TCAD simulation</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>IOP Publishing</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Applied Physics Express</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Ishida, Takashi; Sakao, Keisuke; Kachi, Tetsu; Suda, Jun</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>10.35848/1882-0786/ac18af</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.35848/1882-0786/ac18af</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Impact of channel mobility on design optimization of 600–3300 V-class high-speed GaN vertical-trench MOSFETs based on TCAD simulation</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Influence of GaN Cap Layer on E-Mode AlGaN/GaN HEMT Device with Nitrogen Implanted Gate Using TCAD Simulations</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Research Square Platform LLC</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Song, Yu-Lin; Reddy, Manoj Kumar; Issac, Kutagulla</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>10.21203/rs.3.rs-3324114/v1</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.21203/rs.3.rs-3324114/v1</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Electrostatics</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Influence of GaN Cap Layer on E-Mode AlGaN/GaN HEMT Device with Nitrogen Implanted Gate Using TCAD Simulations</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TCAD Modelling of 30nm Strained-Si/SiGe/Si Channel MOSFET</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2019 Devices for Integrated Circuit (DevIC)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Khiangte, Lalthanpuii; Dhar, Rudra Sankar</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>10.1109/devic.2019.8783606</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/devic.2019.8783606</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>TCAD Modelling of 30nm Strained-Si/SiGe/Si Channel MOSFET</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Physics-Based TCAD Simulation and Calibration of 600 V GaN/AlGaN/GaN Device Characteristics and Analysis of Interface Traps</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>MDPI AG</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Micromachines</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Song, Yu-Lin; Reddy, Manoj Kumar; Chang, Luh-Maan; Sheu, Gene</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>10.3390/mi12070751</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/mi12070751</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Physics-Based TCAD Simulation and Calibration of 600 V GaN/AlGaN/GaN Device Characteristics and Analysis of Interface Traps</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TCAD Modeling of GaN HEMT Output Admittance Dispersion through Trap Rate Equation Green’s Functions</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>MDPI AG</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Catoggio, Eva; Donati Guerrieri, Simona; Bonani, Fabrizio</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>10.3390/electronics12112457</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/electronics12112457</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>TCAD Modeling of GaN HEMT Output Admittance Dispersion through Trap Rate Equation Green’s Functions</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Comprehensive Analysis of Process Variability on AlGaN/GaN HEMTs through TCAD Simulations</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Trans Tech Publications, Ltd.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Materials Science Forum</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Miccoli, Cristina; Cinnera Martino, Valeria; Rinaudo, Salvatore</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>10.4028/www.scientific.net/msf.711.218</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4028/www.scientific.net/msf.711.218</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Comprehensive Analysis of Process Variability on AlGaN/GaN HEMTs through TCAD Simulations</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TCAD modeling of a lateral GaN HEMT using empirical data</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2018 IEEE Applied Power Electronics Conference and Exposition (APEC)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Hontz, Michael R.; Chu, Rongming; Khanna, Raghav</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>10.1109/apec.2018.8341017</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/apec.2018.8341017</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Geometry</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>TCAD modeling of a lateral GaN HEMT using empirical data</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Cryogenic Performances Comparisons Among Si MOSFET, SiC MOSFET, Cascode GaN, and GaN Devices</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>IOP Publishing</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>IOP Conference Series: Materials Science and Engineering</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Wei, Yuqi; Hossain, Md Maksudul; Alan Mantooth, H.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>10.1088/1757-899x/1241/1/012042</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/1757-899x/1241/1/012042</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Cryogenic Performances Comparisons Among Si MOSFET, SiC MOSFET, Cascode GaN, and GaN Devices</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Normally‐off vertical‐type mesa‐gate GaN MOSFET</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Institution of Engineering and Technology (IET)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Electronics Letters</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Won, Chul‐Ho; Kim, Ki‐Won; Kim, Dong‐Seok; Kang, Hee‐Sung; Im, Ki‐Sik; Jo, Young‐Woo; Kim, Do‐Kywn; Kim, Ryun‐Hwi; Lee, Jung‐Hee</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>10.1049/el.2014.1692</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1049/el.2014.1692</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Normally‐off vertical‐type mesa‐gate GaN MOSFET</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Development of GaN trench MOSFET process technologies</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>IOP Publishing</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Applied Physics Express</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Kachi, Tetsu</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>10.35848/1882-0786/ae393a</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.35848/1882-0786/ae393a</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Development of GaN trench MOSFET process technologies</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Fast power switching with cascode diamond MOSFET–SiC MOSFET/GaN HEMT complementary half-bridge inverter</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>AIP Publishing</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>APL Electronic Devices</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kawai, Sora; Oi, Nobutaka; Isobe, Takanori; Ota, Kosuke; Amazutsumi, Koji; Fujishima, Tatsuya; Kawarada, Hiroshi</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>10.1063/5.0290094</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1063/5.0290094</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>p-FET</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Fast power switching with cascode diamond MOSFET–SiC MOSFET/GaN HEMT complementary half-bridge inverter</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Processing Issues in SiC and GaN Power Devices Technology: The Cases of 4H-SiC Planar MOSFET and Recessed Hybrid GaN MISHEMT</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2018 International Semiconductor Conference (CAS)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Roccaforte, F.; Greco, G.; Fiorenza, P.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>10.1109/smicnd.2018.8539756</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/smicnd.2018.8539756</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Processing Issues in SiC and GaN Power Devices Technology: The Cases of 4H-SiC Planar MOSFET and Recessed Hybrid GaN MISHEMT</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Enhancement Mode GaN Tri-Gate MISHEMT with Fluorine Doped Charge Trapping Layer in Hybrid Ferroelectric Gate Stack</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2025 22nd International Workshop on Junction Technology (IWJT)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Rai, Rahul; Tran, Duy Hung; Nguyen, Quoc Khanh; Yang, Tsung-Ying; En, Hu Shu; Mazhari, Baquer; Chang, Edward Yi</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>10.23919/iwjt66253.2025.11072880</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.23919/iwjt66253.2025.11072880</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Enhancement Mode GaN Tri-Gate MISHEMT with Fluorine Doped Charge Trapping Layer in Hybrid Ferroelectric Gate Stack</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Temperature dependency and linearity assessment of dual-metal gate stack junctionless accumulation-mode cylindrical surrounding gate (DMGS-JAM-CSG) MOSFET</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>IOP Publishing</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Physica Scripta</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Gupta, Sumedha; Pandey, Neeta; Gupta, R S</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>10.1088/1402-4896/ac33fd</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/1402-4896/ac33fd</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Temperature dependency and linearity assessment of dual-metal gate stack junctionless accumulation-mode cylindrical surrounding gate (DMGS-JAM-CSG) MOSFET</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Enhancement Mode GaN Tri-Gate MISHEMT With Fluorinated HfO₂ as Charge Trapping Layer in Hybrid Ferroelectric Gate Stack</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers (IEEE)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>IEEE Journal of the Electron Devices Society</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Rai, Rahul; Quoc Nguyen, Khanh; Duy Tran, Hung; Quoc Ho, Viet; Chen Weng, You; Mazhari, Baquer; Chung Kuo, Hao; Chang, Edward Yi</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>10.1109/jeds.2025.3649208</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/jeds.2025.3649208</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Enhancement Mode GaN Tri-Gate MISHEMT With Fluorinated HfO₂ as Charge Trapping Layer in Hybrid Ferroelectric Gate Stack</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Fabrication and Characterization of AlGaN/GaN Enhancement-Mode MOSHEMTs With Fin-Channel Array and Hybrid Gate-Recessed Structure and LiNbO&lt;sub&gt;3&lt;/sub&gt; Ferroelectric Charge Trap Gate-Stack Structure</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers (IEEE)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>IEEE Transactions on Electron Devices</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Lee, Hsin-Ying; Lin, Chia-Hung; Lee, Ching-Ting</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>10.1109/ted.2021.3133385</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/ted.2021.3133385</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Fabrication and Characterization of AlGaN/GaN Enhancement-Mode MOSHEMTs With Fin-Channel Array and Hybrid Gate-Recessed Structure and LiNbO&lt;sub&gt;3&lt;/sub&gt; Ferroelectric Charge Trap Gate-Stack Structure</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>TCAD Simulation of the Bipolar Degradation in SiC MOSFET Power Devices</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Czech Technical University in Prague</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ISPS'21 Proceedings</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Lachichi, A.; Mawby, P.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>10.14311/isps.2021.012</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14311/isps.2021.012</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>TCAD Simulation of the Bipolar Degradation in SiC MOSFET Power Devices</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TCAD Modelling of 30nm Strained-Si/SiGe/Si Channel MOSFET</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2019 Devices for Integrated Circuit (DevIC)</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Khiangte, Lalthanpuii; Dhar, Rudra Sankar</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>10.1109/devic.2019.8783606</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/devic.2019.8783606</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>TCAD Modelling of 30nm Strained-Si/SiGe/Si Channel MOSFET</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Study of Deep Sub-Micron VLSI MOSFETs through TCAD</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CRC Press</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Technology Computer Aided Design</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Pandit, Srabanti</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>10.1201/b14860-7</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1201/b14860-7</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Study of Deep Sub-Micron VLSI MOSFETs through TCAD</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TCAD investigation of ferroelectric based substrate MOSFET for digital application</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Springer Science and Business Media LLC</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Silicon</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Mann, Rashi; Chaujar, Rishu</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>10.1007/s12633-021-01472-y</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s12633-021-01472-y</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>TCAD investigation of ferroelectric based substrate MOSFET for digital application</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>General TCAD Model of MOSFET and BJT Structures With Account for Radiation Eff ects</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Technosphera JSC</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Nanoindustry Russia</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Konstantin O., Petrosyants; Maxim V., Kozhukhov; Dmitriy A., Popov</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>10.22184/1993-8578.2018.82.404.405</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.22184/1993-8578.2018.82.404.405</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>General TCAD Model of MOSFET and BJT Structures With Account for Radiation Eff ects</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TCAD Simulation of Single Event Transient in Si Bulk MOSFET at Cryogenic Temperature</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers (IEEE)</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>IEEE Access</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Lu, Tongshan; Wang, Chenghua</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>10.1109/access.2022.3206401</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/access.2022.3206401</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>TCAD Simulation of Single Event Transient in Si Bulk MOSFET at Cryogenic Temperature</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TCAD Modeling of a 1200 V SiC MOSFET</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Trans Tech Publications, Ltd.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Materials Science Forum</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Lee, Kwang Won; Buono, Benedetto; Domeij, Martin; Franchi, Jimmy</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>10.4028/www.scientific.net/msf.924.689</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4028/www.scientific.net/msf.924.689</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>TCAD Modeling of a 1200 V SiC MOSFET</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TCAD RF performance investigation of Transparent Gate Recessed Channel MOSFET</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Elsevier BV</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Microelectronics Journal</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Kumar, Ajay; Gupta, Neha; Chaujar, Rishu</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>10.1016/j.mejo.2015.12.007</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.mejo.2015.12.007</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>TCAD RF performance investigation of Transparent Gate Recessed Channel MOSFET</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Designing and characterization of 60nm p-well MOSFET using Sentaurus TCAD Software</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2010 2nd International Conference on Electronic Computer Technology</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>binti Morsin, Marlia; Amriey, Mohd Khairul</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>10.1109/icectech.2010.5479966</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/icectech.2010.5479966</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Designing and characterization of 60nm p-well MOSFET using Sentaurus TCAD Software</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TCAD assessment of nonconventional Dual Insulator Double Gate MOSFET</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2012 International Conference on Devices, Circuits and Systems (ICDCS)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Yadav, S.; Srivastava, A.; Rahul, J.; Kishor Jha, Kamal</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>10.1109/icdcsyst.2012.6188757</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/icdcsyst.2012.6188757</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>TCAD assessment of nonconventional Dual Insulator Double Gate MOSFET</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TCAD RF Performance Investigation of V-Shaped Groove Gate MOSFET</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>International Journal for Multidisciplinary Research (IJFMR)</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>International Journal For Multidisciplinary Research</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-, Priyanka Malik; -, Pooja Devi; -, Nisha Malik; -, Narendra Singh</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>10.36948/ijfmr.2023.v05i02.2477</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.36948/ijfmr.2023.v05i02.2477</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>TCAD RF Performance Investigation of V-Shaped Groove Gate MOSFET</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>A Study of Traditional and Surrounding Gate MOSFET using TCAD Simulations</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Indian Society for Education and Environment</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Indian Journal of Science and Technology</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Gupta, Neeraj</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>10.17485/ijst/2016/v9i47/101747</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.17485/ijst/2016/v9i47/101747</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>A Study of Traditional and Surrounding Gate MOSFET using TCAD Simulations</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Analysis of P-N Junction Length of Drain and Source in MOSFET Transistor Through TCAD Simulation</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Science Research Society</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Journal of Electrical Systems</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Debasis Mukherjee</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>10.52783/jes.2972</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.52783/jes.2972</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Analysis of P-N Junction Length of Drain and Source in MOSFET Transistor Through TCAD Simulation</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Mathematical Validation of 100nm n-MOSFET using Silvaco TCAD</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2023 7th International Conference On Computing, Communication, Control And Automation (ICCUBEA)</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Rajput, Priti J.; Bhandari, Sheetal U.</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>10.1109/iccubea58933.2023.10392148</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/iccubea58933.2023.10392148</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Mathematical Validation of 100nm n-MOSFET using Silvaco TCAD</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Evaluation of Optically Illuminated Mosfet Characteristics by Tcad Simulation</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Academy and Industry Research Collaboration Center (AIRCC)</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>International Journal of VLSI Design &amp;amp; Communication Systems</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Jain, Prerana; B.K, Mishra</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>10.5121/vlsic.2013.4202</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5121/vlsic.2013.4202</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Evaluation of Optically Illuminated Mosfet Characteristics by Tcad Simulation</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Influence of GaN Cap Layer on E-Mode AlGaN/GaN HEMT Device with Nitrogen Implanted Gate Using TCAD Simulations</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Research Square Platform LLC</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Song, Yu-Lin; Reddy, Manoj Kumar; Issac, Kutagulla</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>10.21203/rs.3.rs-3324114/v1</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.21203/rs.3.rs-3324114/v1</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Electrostatics</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Influence of GaN Cap Layer on E-Mode AlGaN/GaN HEMT Device with Nitrogen Implanted Gate Using TCAD Simulations</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>TCAD Modeling of GaN HEMT Output Admittance Dispersion through Trap Rate Equation Green’s Functions</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>MDPI AG</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Catoggio, Eva; Donati Guerrieri, Simona; Bonani, Fabrizio</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>10.3390/electronics12112457</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/electronics12112457</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>TCAD Modeling of GaN HEMT Output Admittance Dispersion through Trap Rate Equation Green’s Functions</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>TCAD modeling of a lateral GaN HEMT using empirical data</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2018 IEEE Applied Power Electronics Conference and Exposition (APEC)</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Hontz, Michael R.; Chu, Rongming; Khanna, Raghav</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>10.1109/apec.2018.8341017</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/apec.2018.8341017</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Geometry</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>TCAD modeling of a lateral GaN HEMT using empirical data</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Enhancement‐mode AlGaN/GaN HEMT and MIS‐HEMT technology</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Wiley</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>physica status solidi (a)</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Chen, Kevin J.; Zhou, Chunhua</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>10.1002/pssa.201000631</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/pssa.201000631</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Enhancement‐mode AlGaN/GaN HEMT and MIS‐HEMT technology</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Review for "Impact and Performance Analysis of p-type h-BN Layer Recessing on Threshold Voltage, RF and Linearity Parameters of AlGaN/GaN Enhancement Mode HEMT Using TCAD Simulation"</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>IOP Publishing</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>10.1088/1402-4896/ae18ff/v1/review1</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/1402-4896/ae18ff/v1/review1</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Electrostatics</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Review for "Impact and Performance Analysis of p-type h-BN Layer Recessing on Threshold Voltage, RF and Linearity Parameters of AlGaN/GaN Enhancement Mode HEMT Using TCAD Simulation"</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Review for "Impact and Performance Analysis of p-type h-BN Layer Recessing on Threshold Voltage, RF and Linearity Parameters of AlGaN/GaN Enhancement Mode HEMT Using TCAD Simulation"</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>IOP Publishing</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>10.1088/1402-4896/ae18ff/v2/review2</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/1402-4896/ae18ff/v2/review2</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Electrostatics</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Review for "Impact and Performance Analysis of p-type h-BN Layer Recessing on Threshold Voltage, RF and Linearity Parameters of AlGaN/GaN Enhancement Mode HEMT Using TCAD Simulation"</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Review for "Impact and Performance Analysis of p-type h-BN Layer Recessing on Threshold Voltage, RF and Linearity Parameters of AlGaN/GaN Enhancement Mode HEMT Using TCAD Simulation"</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>IOP Publishing</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>10.1088/1402-4896/ae18ff/v1/review2</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/1402-4896/ae18ff/v1/review2</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Electrostatics</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Review for "Impact and Performance Analysis of p-type h-BN Layer Recessing on Threshold Voltage, RF and Linearity Parameters of AlGaN/GaN Enhancement Mode HEMT Using TCAD Simulation"</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Review for "Impact and Performance Analysis of p-type h-BN Layer Recessing on Threshold Voltage, RF and Linearity Parameters of AlGaN/GaN Enhancement Mode HEMT Using TCAD Simulation"</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>IOP Publishing</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Mishra, Shivanshu</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>10.1088/1402-4896/ae18ff/v2/review1</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/1402-4896/ae18ff/v2/review1</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Electrostatics</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Review for "Impact and Performance Analysis of p-type h-BN Layer Recessing on Threshold Voltage, RF and Linearity Parameters of AlGaN/GaN Enhancement Mode HEMT Using TCAD Simulation"</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Decision letter for "Impact and Performance Analysis of p-type h-BN Layer Recessing on Threshold Voltage, RF and Linearity Parameters of AlGaN/GaN Enhancement Mode HEMT Using TCAD Simulation"</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>IOP Publishing</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>10.1088/1402-4896/ae18ff/v1/decision1</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/1402-4896/ae18ff/v1/decision1</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Electrostatics</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Decision letter for "Impact and Performance Analysis of p-type h-BN Layer Recessing on Threshold Voltage, RF and Linearity Parameters of AlGaN/GaN Enhancement Mode HEMT Using TCAD Simulation"</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>TCAD Investigation of AlGaN/AlN/GaN HEMT for Hydrogen Sensing Applications</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2024 8th IEEE Electron Devices Technology &amp;amp;amp; Manufacturing Conference (EDTM)</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Kumaran, Renuka; Rahul, J; Varghese, Arathy; Rajan, Lintu</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>10.1109/edtm58488.2024.10511532</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/edtm58488.2024.10511532</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>TCAD Investigation of AlGaN/AlN/GaN HEMT for Hydrogen Sensing Applications</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Hybrid 2D/CMOS Microchips for Memristive Technologies</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2023 International VLSI Symposium on Technology, Systems and Applications (VLSI-TSA/VLSI-DAT)</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Lanza, Mario</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>10.1109/vlsi-tsa/vlsi-dat57221.2023.10134244</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/vlsi-tsa/vlsi-dat57221.2023.10134244</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Co-integration</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Hybrid 2D/CMOS Microchips for Memristive Technologies</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Advanced CMOS reliability challenges</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Proceedings of Technical Program - 2014 International Symposium on VLSI Technology, Systems and Application (VLSI-TSA)</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Prasad, Chetan</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>10.1109/vlsi-tsa.2014.6839637</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/vlsi-tsa.2014.6839637</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Co-integration</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Advanced CMOS reliability challenges</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Long, Short, Monolithic - The Gate Loop Challenge for GaN Drivers: Invited Paper</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2020 IEEE Custom Integrated Circuits Conference (CICC)</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Kaufmann, Maik; Seidel, Achim; Wicht, Bernhard</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>10.1109/cicc48029.2020.9075937</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/cicc48029.2020.9075937</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Co-integration</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Long, Short, Monolithic - The Gate Loop Challenge for GaN Drivers: Invited Paper</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>GaN-based complementary inverter logic gate using InGaN/GaN superlattice capped enhancement-mode field-effect-transistors</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>IOP Publishing</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Nanotechnology</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Jha, Jaya; Ganguly, Swaroop; Saha, Dipankar</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>10.1088/1361-6528/abfb99</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/1361-6528/abfb99</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>GaN-based complementary inverter logic gate using InGaN/GaN superlattice capped enhancement-mode field-effect-transistors</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Networking 3 K Logic Gate Quantum Processors to Approach 1 Billion Logic Gate Performance</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>MDPI AG</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Guidotti, Daniel; Chang, Gee-Kung; Ma, Xiaoli</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>10.20944/preprints202409.0784.v1</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.20944/preprints202409.0784.v1</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Inverter</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Networking 3 K Logic Gate Quantum Processors to Approach 1 Billion Logic Gate Performance</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Contactless and soft contact electroreflectance of AlGaN/GaN and GaN/AlGaN/GaN field effect transistor heterostructures</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Wiley</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>physica status solidi c</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kudrawiec, Robert; Misiewicz, Jan</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>10.1002/pssc.200982626</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/pssc.200982626</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Geometry</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Contactless and soft contact electroreflectance of AlGaN/GaN and GaN/AlGaN/GaN field effect transistor heterostructures</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Trap Densities at Gate Dielectric/2D Channel Interface By Capacitance Measurements</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>The Electrochemical Society</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ECS Meeting Abstracts</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Krishnaprasad, Adithi; Roy, Tania</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>10.1149/ma2017-01/12/822</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1149/ma2017-01/12/822</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Co-integration</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Trap Densities at Gate Dielectric/2D Channel Interface By Capacitance Measurements</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Low temperature gate dielectric deposition for recessed AlGaN/GaN MIS-HEMTs</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2011 Proceedings of the European Solid-State Device Research Conference (ESSDERC)</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Saadat, Omair I.; Palacios, Tomas</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>10.1109/essderc.2011.6044178</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/essderc.2011.6044178</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Low temperature gate dielectric deposition for recessed AlGaN/GaN MIS-HEMTs</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Impact of Gate Dielectric Deposition Temperature on p-type Inversion Channel MOSFETs fabricated on GaN-on-Si</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2022 IEEE Workshop on Wide Bandgap Power Devices and Applications in Europe (WiPDA Europe)</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Henn, Mirjam; Huber, Christian</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>10.1109/wipdaeurope55971.2022.9936574</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/wipdaeurope55971.2022.9936574</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Impact of Gate Dielectric Deposition Temperature on p-type Inversion Channel MOSFETs fabricated on GaN-on-Si</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Status of Aluminum Oxide Gate Dielectric Technology for Insulated-Gate GaN-Based Devices</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>MDPI AG</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Calzolaro, Anthony; Mikolajick, Thomas; Wachowiak, Andre</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>10.3390/ma15030791</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/ma15030791</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Status of Aluminum Oxide Gate Dielectric Technology for Insulated-Gate GaN-Based Devices</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Low-temperature atomic layer deposition-grown Al2O3 gate dielectric for GaN/AlGaN/GaN MOS HEMTs: Impact of deposition conditions on interface state density</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>American Vacuum Society</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Journal of Vacuum Science &amp;amp; Technology B, Nanotechnology and Microelectronics: Materials, Processing, Measurement, and Phenomena</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Ťapajna, Milan; Válik, Lukáš; Gucmann, Filip; Gregušová, Dagmar; Fröhlich, Karol; Haščík, Štefan; Dobročka, Edmund; Tóth, Lajos; Pécz, Béla; Kuzmík, Ján</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>10.1116/1.4972870</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1116/1.4972870</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Low-temperature atomic layer deposition-grown Al2O3 gate dielectric for GaN/AlGaN/GaN MOS HEMTs: Impact of deposition conditions on interface state density</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Improvement in the channel mobility of a recess-gate GaN MOSFET with Al&lt;sub&gt;0.28&lt;/sub&gt;Si&lt;sub&gt;0.72&lt;/sub&gt;O&lt;sub&gt;X&lt;/sub&gt; gate dielectric using the AlGaN/GaN selective-area regrowth method on a GaN-on-Si substrate</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>IOP Publishing</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Japanese Journal of Applied Physics</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Huang, Po-Chin; Smith, Matthew; Kato, Daimotsu; Tajima, Jumpei; Ono, Hiroshi; Kuraguchi, Masahiko; Hikosaka, Toshiki</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>10.35848/1347-4065/ada618</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.35848/1347-4065/ada618</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Improvement in the channel mobility of a recess-gate GaN MOSFET with Al&lt;sub&gt;0.28&lt;/sub&gt;Si&lt;sub&gt;0.72&lt;/sub&gt;O&lt;sub&gt;X&lt;/sub&gt; gate dielectric using the AlGaN/GaN selective-area regrowth method on a GaN-on-Si substrate</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Gate Current in p-GaN Gate HEMTs as a Channel Temperature Sensitive Parameter: A Comparative Study between Schottky- and Ohmic-Gate GaN HEMTs</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>MDPI AG</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Energies</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Borghese, Alessandro; Di Costanzo, Alessandro; Riccio, Michele; Maresca, Luca; Breglio, Giovanni; Irace, Andrea</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>10.3390/en14238055</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/en14238055</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Gate Current in p-GaN Gate HEMTs as a Channel Temperature Sensitive Parameter: A Comparative Study between Schottky- and Ohmic-Gate GaN HEMTs</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Interface states characterization in GaN MISHEMTs with in-situ SiN gate dielectric using frequency-dependent conductance and deep level transient spectroscopy methods</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2025 22nd China International Forum on Solid State Lighting &amp;amp;amp; 2025 11th International Forum on Wide Bandgap Semiconductors (SSLCHINA: IFWS)</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Lin, Han; Zhou, Zirui; Lau, Kei May; Jiang, Huaxing</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>10.1109/sslchinaifws69008.2025.11314957</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/sslchinaifws69008.2025.11314957</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Interface states characterization in GaN MISHEMTs with in-situ SiN gate dielectric using frequency-dependent conductance and deep level transient spectroscopy methods</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>P-Channel InGaN/GaN heterostructure metal-oxide-semiconductor field effect transistor based on polarization-induced two-dimensional hole gas</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Springer Science and Business Media LLC</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Scientific Reports</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Zhang, Kexiong; Sumiya, Masatomo; Liao, Meiyong; Koide, Yasuo; Sang, Liwen</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>10.1038/srep23683</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/srep23683</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>p-FET</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>P-Channel InGaN/GaN heterostructure metal-oxide-semiconductor field effect transistor based on polarization-induced two-dimensional hole gas</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Multicontrast endomyocardial imaging by single‐channel high‐resolution cross‐polarization optical coherence tomography</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Wiley</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Journal of Biophotonics</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Yao, Xinwen; Gan, Yu; Ling, Yuye; Marboe, Charles C.; Hendon, Christine P.</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>10.1002/jbio.201700204</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/jbio.201700204</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Reliability</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Multicontrast endomyocardial imaging by single‐channel high‐resolution cross‐polarization optical coherence tomography</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>CS-MRI Reconstruction Using an Improved GAN with Dilated-Residual Networks and Channel Attention Mechanism</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>MDPI AG</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Li, Xia; Zhang, Hui; Yang, Hao; Li, Tie-Qiang</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>10.20944/preprints202307.0666.v1</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.20944/preprints202307.0666.v1</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>CS-MRI Reconstruction Using an Improved GAN with Dilated-Residual Networks and Channel Attention Mechanism</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Modeling the mobility in ultrathin N-polar GaN and InGaN-GaN channel heterostructures</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers (IEEE)</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>M, Anuja Menokey; Ajoy, Arvind</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>10.36227/techrxiv.170326565.55678347/v1</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.36227/techrxiv.170326565.55678347/v1</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Modeling the mobility in ultrathin N-polar GaN and InGaN-GaN channel heterostructures</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Ultralow nonalloyed Ohmic contact resistance to self aligned N-polar GaN high electron mobility transistors by In(Ga)N regrowth</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>AIP Publishing</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Applied Physics Letters</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Dasgupta, Sansaptak; Nidhi; Brown, David F.; Wu, Feng; Keller, Stacia; Speck, James S.; Mishra, Umesh K.</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>10.1063/1.3374331</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1063/1.3374331</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Compact</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Ultralow nonalloyed Ohmic contact resistance to self aligned N-polar GaN high electron mobility transistors by In(Ga)N regrowth</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Selective area regrowth of silane-doped GaN achieving record carrier density for ultra-low resistive Ohmic contacts for AlGaN/GaN HEMT</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>AIP Publishing</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Applied Physics Letters</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Mukhopadhyay, Swarnav; Sanyal, Surjava; Bai, Ruixin; Challa, Brahmani; Gupta, Chirag; Pasayat, Shubhra S.</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>10.1063/5.0289411</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1063/5.0289411</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Selective area regrowth of silane-doped GaN achieving record carrier density for ultra-low resistive Ohmic contacts for AlGaN/GaN HEMT</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Normally-off AlGaN/GaN high electron mobility transistors on Si substrate with selective barrier regrowth in ohmic regions</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>IOP Publishing</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Semiconductor Science and Technology</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Jiang, Weihong; Tang, Haipeng; Bardwell, Jennifer A</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>10.1088/1361-6641/abecab</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/1361-6641/abecab</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Normally-off AlGaN/GaN high electron mobility transistors on Si substrate with selective barrier regrowth in ohmic regions</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>CMOS-Compatible Low-Temperature Au-Free Ohmic Contact Process for GaN</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2025 22nd China International Forum on Solid State Lighting &amp;amp;amp; 2025 11th International Forum on Wide Bandgap Semiconductors (SSLCHINA: IFWS)</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Pan, Jiajie; Jia, Hanxiang; He, Junlei; Ruan, Jie; Liu, Zongchao; Wang, Panpan; Zhao, Bo; Li, Sichao; Tan, Baohua; Lu, Shuangzan</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>10.1109/sslchinaifws69008.2025.11315021</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/sslchinaifws69008.2025.11315021</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Co-integration</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>CMOS-Compatible Low-Temperature Au-Free Ohmic Contact Process for GaN</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/01_literature/IKD_Literature_Master.xlsx
+++ b/01_literature/IKD_Literature_Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T85"/>
+  <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6835,6 +6835,1966 @@
       </c>
       <c r="T85" t="inlineStr"/>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Symmetrical and High-Speed CMOS Inverter Design Using Hybrid PSOGSA Optimization Algorithm</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>University of Slavonski Brod</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Tehnicki vjesnik - Technical Gazette</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>10.17559/tv-20250411002584</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.17559/tv-20250411002584</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Inverter</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Symmetrical and High-Speed CMOS Inverter Design Using Hybrid PSOGSA Optimization Algorithm</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Generation of SVPWM on FPGA to Control 3-Phase Inverter</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>International Journal for Research in Applied Science and Engineering Technology (IJRASET)</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>International Journal for Research in Applied Science and Engineering Technology</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Vandana, Nimma</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>10.22214/ijraset.2026.76782</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.22214/ijraset.2026.76782</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Inverter</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>Generation of SVPWM on FPGA to Control 3-Phase Inverter</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Symmetrical and High-Speed CMOS Inverter Design Using Hybrid PSOGSA Optimization Algorithm</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>University of Slavonski Brod</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Tehnicki vjesnik - Technical Gazette</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>10.17559/tv-20250411002584</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.17559/tv-20250411002584</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Inverter</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>Symmetrical and High-Speed CMOS Inverter Design Using Hybrid PSOGSA Optimization Algorithm</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Charge vertical diffusion control of threshold voltage behavior in GaN MIS-HEMTs under bias temperature instability (BTI)</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Elsevier BV</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Materials Science in Semiconductor Processing</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Yang, YeonSil; An, Do gyun; Lee, Kang Hee; Heo, Junseok; Kim, Jang Hyun</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>10.1016/j.mssp.2025.110190</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.mssp.2025.110190</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>Charge vertical diffusion control of threshold voltage behavior in GaN MIS-HEMTs under bias temperature instability (BTI)</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Dual voltage-dependent mechanisms of single-event leakage current in SiC trench MOSFETs: Heavy-Ion irradiation and TCAD simulation study</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Elsevier BV</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Nuclear Engineering and Technology</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Chen, De-Xin; Wang, Ying; Cui, Wan-zhao; Song, Yan-xing; Cao, Fei</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>10.1016/j.net.2025.103979</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.net.2025.103979</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>Dual voltage-dependent mechanisms of single-event leakage current in SiC trench MOSFETs: Heavy-Ion irradiation and TCAD simulation study</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Performance enhancement in 3D transistors: A TCAD simulation-based study of FinFETs and GAAFETs with novel source-drain extensions</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Elsevier BV</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Micro and Nanostructures</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Li, Man; Huang, Yifan; Xiao, Wei; Wang, Mingxiang; Guo, Yeye; Zhang, Dongli; Wang, Huaisheng; Shen, Chen; Gong, Ding</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>10.1016/j.micrna.2025.208473</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.micrna.2025.208473</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>Performance enhancement in 3D transistors: A TCAD simulation-based study of FinFETs and GAAFETs with novel source-drain extensions</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>First Characterization of Si IGBT, SiC MOSFET, and GaN HEMT at Deep Cryogenic Temperatures Down to 10 Millikelvins</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers (IEEE)</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>IEEE Transactions on Power Electronics</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Yang, Xin; Yang, Zineng; Porter, Matthew; Shao, Linbo; Zhang, Yuhao</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>10.1109/tpel.2025.3601008</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/tpel.2025.3601008</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>First Characterization of Si IGBT, SiC MOSFET, and GaN HEMT at Deep Cryogenic Temperatures Down to 10 Millikelvins</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Electrostatic discharge power-rail clamp circuit with silicon-controlled rectifier and MOSFET hybrid clamping device</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Elsevier BV</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Microelectronics Journal</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Yue, Yaping; Wu, Ruizhen; Hou, Ronghui; Yang, Yuan</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>10.1016/j.mejo.2025.107008</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.mejo.2025.107008</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>Electrostatic discharge power-rail clamp circuit with silicon-controlled rectifier and MOSFET hybrid clamping device</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Study on the performance of closed-loop control system considering bond wires aging of SiC MOSFET</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Elsevier BV</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Microelectronics Journal</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Du, Mingxing; Wang, Shaoxiang; Yang, Jianxiong; Huang, Xiyuan; Qiao, Haotian</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>10.1016/j.mejo.2025.106998</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.mejo.2025.106998</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>Study on the performance of closed-loop control system considering bond wires aging of SiC MOSFET</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>First Characterization of Si IGBT, SiC MOSFET, and GaN HEMT at Deep Cryogenic Temperatures Down to 10 Millikelvins</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers (IEEE)</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>IEEE Transactions on Power Electronics</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Yang, Xin; Yang, Zineng; Porter, Matthew; Shao, Linbo; Zhang, Yuhao</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>10.1109/tpel.2025.3601008</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/tpel.2025.3601008</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>First Characterization of Si IGBT, SiC MOSFET, and GaN HEMT at Deep Cryogenic Temperatures Down to 10 Millikelvins</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>First Characterization of Si IGBT, SiC MOSFET, and GaN HEMT at Deep Cryogenic Temperatures Down to 10 Millikelvins</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers (IEEE)</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>IEEE Transactions on Power Electronics</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Yang, Xin; Yang, Zineng; Porter, Matthew; Shao, Linbo; Zhang, Yuhao</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>10.1109/tpel.2025.3601008</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/tpel.2025.3601008</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>First Characterization of Si IGBT, SiC MOSFET, and GaN HEMT at Deep Cryogenic Temperatures Down to 10 Millikelvins</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Dual voltage-dependent mechanisms of single-event leakage current in SiC trench MOSFETs: Heavy-Ion irradiation and TCAD simulation study</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Elsevier BV</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Nuclear Engineering and Technology</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Chen, De-Xin; Wang, Ying; Cui, Wan-zhao; Song, Yan-xing; Cao, Fei</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>10.1016/j.net.2025.103979</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.net.2025.103979</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>Dual voltage-dependent mechanisms of single-event leakage current in SiC trench MOSFETs: Heavy-Ion irradiation and TCAD simulation study</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Performance enhancement in 3D transistors: A TCAD simulation-based study of FinFETs and GAAFETs with novel source-drain extensions</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Elsevier BV</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Micro and Nanostructures</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Li, Man; Huang, Yifan; Xiao, Wei; Wang, Mingxiang; Guo, Yeye; Zhang, Dongli; Wang, Huaisheng; Shen, Chen; Gong, Ding</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>10.1016/j.micrna.2025.208473</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.micrna.2025.208473</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>Performance enhancement in 3D transistors: A TCAD simulation-based study of FinFETs and GAAFETs with novel source-drain extensions</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Electrostatic discharge power-rail clamp circuit with silicon-controlled rectifier and MOSFET hybrid clamping device</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Elsevier BV</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Microelectronics Journal</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Yue, Yaping; Wu, Ruizhen; Hou, Ronghui; Yang, Yuan</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>10.1016/j.mejo.2025.107008</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.mejo.2025.107008</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>Electrostatic discharge power-rail clamp circuit with silicon-controlled rectifier and MOSFET hybrid clamping device</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Study on the performance of closed-loop control system considering bond wires aging of SiC MOSFET</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Elsevier BV</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Microelectronics Journal</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Du, Mingxing; Wang, Shaoxiang; Yang, Jianxiong; Huang, Xiyuan; Qiao, Haotian</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>10.1016/j.mejo.2025.106998</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.mejo.2025.106998</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>Study on the performance of closed-loop control system considering bond wires aging of SiC MOSFET</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Design and characterization of 2-GaN MIS-HEMT integrated cascode power module</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Elsevier BV</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Microelectronic Engineering</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Elangovan, Surya; Cheng, Stone; Chang, Edward Yi; Rawat, Tejender Singh; Hsiao, Yi-Kai; Tu, Chang-Ching; Kuo, Hao-Chung</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>10.1016/j.mee.2025.112439</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.mee.2025.112439</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>Design and characterization of 2-GaN MIS-HEMT integrated cascode power module</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>First Characterization of Si IGBT, SiC MOSFET, and GaN HEMT at Deep Cryogenic Temperatures Down to 10 Millikelvins</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers (IEEE)</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>IEEE Transactions on Power Electronics</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Yang, Xin; Yang, Zineng; Porter, Matthew; Shao, Linbo; Zhang, Yuhao</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>10.1109/tpel.2025.3601008</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/tpel.2025.3601008</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>First Characterization of Si IGBT, SiC MOSFET, and GaN HEMT at Deep Cryogenic Temperatures Down to 10 Millikelvins</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Charge vertical diffusion control of threshold voltage behavior in GaN MIS-HEMTs under bias temperature instability (BTI)</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Elsevier BV</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Materials Science in Semiconductor Processing</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Yang, YeonSil; An, Do gyun; Lee, Kang Hee; Heo, Junseok; Kim, Jang Hyun</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>10.1016/j.mssp.2025.110190</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.mssp.2025.110190</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>Charge vertical diffusion control of threshold voltage behavior in GaN MIS-HEMTs under bias temperature instability (BTI)</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Dual voltage-dependent mechanisms of single-event leakage current in SiC trench MOSFETs: Heavy-Ion irradiation and TCAD simulation study</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Elsevier BV</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Nuclear Engineering and Technology</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Chen, De-Xin; Wang, Ying; Cui, Wan-zhao; Song, Yan-xing; Cao, Fei</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>10.1016/j.net.2025.103979</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.net.2025.103979</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Dual voltage-dependent mechanisms of single-event leakage current in SiC trench MOSFETs: Heavy-Ion irradiation and TCAD simulation study</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Symmetrical and High-Speed CMOS Inverter Design Using Hybrid PSOGSA Optimization Algorithm</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>University of Slavonski Brod</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Tehnicki vjesnik - Technical Gazette</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>10.17559/tv-20250411002584</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.17559/tv-20250411002584</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Inverter</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>Symmetrical and High-Speed CMOS Inverter Design Using Hybrid PSOGSA Optimization Algorithm</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Generation of SVPWM on FPGA to Control 3-Phase Inverter</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>International Journal for Research in Applied Science and Engineering Technology (IJRASET)</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>International Journal for Research in Applied Science and Engineering Technology</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Vandana, Nimma</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>10.22214/ijraset.2026.76782</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.22214/ijraset.2026.76782</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Inverter</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>Generation of SVPWM on FPGA to Control 3-Phase Inverter</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>A 95.3% 12-Class, 108-nJ/Inference Keyword Spotting Chip With Hybrid FFT-BFNet Architecture and Exponent-Aware Nonuniform Quantization in 65-nm CMOS</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers (IEEE)</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>IEEE Transactions on Very Large Scale Integration (VLSI) Systems</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Fu, Zongpei; Lin, Kaixiang; Zhao, Xiaojin; Ge, Lei; Ye, Wenbin</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>10.1109/tvlsi.2025.3632791</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/tvlsi.2025.3632791</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Co-integration</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>A 95.3% 12-Class, 108-nJ/Inference Keyword Spotting Chip With Hybrid FFT-BFNet Architecture and Exponent-Aware Nonuniform Quantization in 65-nm CMOS</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Symmetrical and High-Speed CMOS Inverter Design Using Hybrid PSOGSA Optimization Algorithm</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>University of Slavonski Brod</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Tehnicki vjesnik - Technical Gazette</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>10.17559/tv-20250411002584</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.17559/tv-20250411002584</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Inverter</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>Symmetrical and High-Speed CMOS Inverter Design Using Hybrid PSOGSA Optimization Algorithm</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Integrated DNA logic gate-driven cell membrane confined amplification system for imaging cellular events</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Elsevier BV</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Nano Today</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Guo, Zhenzhen; Qiu, Yue; Wang, Yang; Zhang, Jiali; Jiang, Xiaotong; Wang, Danyu; Yi, Hua; Huang, Mengyu; Chen, Peiru; Zhang, Fangmei; Liang, Yan; Chen, Fengming</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>10.1016/j.nantod.2025.102934</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.nantod.2025.102934</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Inverter</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Reliability</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>Integrated DNA logic gate-driven cell membrane confined amplification system for imaging cellular events</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Optimization of central source contact length to mitigate temperature variation and thermal crosstalk in multi-finger AlGaN/GaN HEMTs: Reliability-based simulation</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Elsevier BV</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Materials Science in Semiconductor Processing</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Lim, Chae-Yun; Lee, Jae-Hun; Kim, Tae-Sung; Won, Young-Hyun; Min, Byoung-Gue; Kang, Dong Min; Kim, Hyun-Seok</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>10.1016/j.mssp.2025.110184</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.mssp.2025.110184</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>Optimization of central source contact length to mitigate temperature variation and thermal crosstalk in multi-finger AlGaN/GaN HEMTs: Reliability-based simulation</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Optimization of central source contact length to mitigate temperature variation and thermal crosstalk in multi-finger AlGaN/GaN HEMTs: Reliability-based simulation</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Elsevier BV</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Materials Science in Semiconductor Processing</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Lim, Chae-Yun; Lee, Jae-Hun; Kim, Tae-Sung; Won, Young-Hyun; Min, Byoung-Gue; Kang, Dong Min; Kim, Hyun-Seok</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>10.1016/j.mssp.2025.110184</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.mssp.2025.110184</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>Optimization of central source contact length to mitigate temperature variation and thermal crosstalk in multi-finger AlGaN/GaN HEMTs: Reliability-based simulation</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/01_literature/IKD_Literature_Master.xlsx
+++ b/01_literature/IKD_Literature_Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T111"/>
+  <dimension ref="A1:T112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8795,6 +8795,82 @@
       </c>
       <c r="T111" t="inlineStr"/>
     </row>
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Low Threshold Voltage Temperature Coefficient Due to Thermal Stress in GaN-on-Diamond HEMTs</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers (IEEE)</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>IEEE Electron Device Letters</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Huang, Lei; Wu, Qingzhi; Mao, Shuman; Kong, Yuechan; Chen, Tangsheng; Xu, Yuehang</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>10.1109/led.2025.3646340</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/led.2025.3646340</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>Electrostatics</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>Low Threshold Voltage Temperature Coefficient Due to Thermal Stress in GaN-on-Diamond HEMTs</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="T112" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/01_literature/IKD_Literature_Master.xlsx
+++ b/01_literature/IKD_Literature_Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T112"/>
+  <dimension ref="A1:T118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8871,6 +8871,454 @@
       </c>
       <c r="T112" t="inlineStr"/>
     </row>
+    <row r="113">
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>A CMOS Measurement-Collapse Primitive for Ephemeral Secrets in Post-Quantum Cryptography</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers (IEEE)</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>III, Francis X. Cunnane</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>10.36227/techrxiv.176463742.23048082/v3</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.36227/techrxiv.176463742.23048082/v3</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Co-integration</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>A CMOS Measurement-Collapse Primitive for Ephemeral Secrets in Post-Quantum Cryptography</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>A CMOS Measurement-Collapse Primitive for Ephemeral Secrets in Post-Quantum Cryptography</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers (IEEE)</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>III, Francis X. Cunnane</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>10.36227/techrxiv.176463742.23048082/v3</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.36227/techrxiv.176463742.23048082/v3</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Co-integration</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>A CMOS Measurement-Collapse Primitive for Ephemeral Secrets in Post-Quantum Cryptography</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>TCAD Demonstration of a High-Voltage Lateral Double-RESURF-VLD β-Ga2O3 MISFET with p-type Diamond for Ultra-Low Ron,sp</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>The Electrochemical Society</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>ECS Journal of Solid State Science and Technology</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Xu, Fan; Dai, Ming; Duan, JunFeng; Zhu, Shengnan; Qiao, Yuan; Yi, Bo; Cheng, Junji; Yang, Hongqiang</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>10.1149/2162-8777/ae3fce</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1149/2162-8777/ae3fce</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>TCAD Demonstration of a High-Voltage Lateral Double-RESURF-VLD β-Ga2O3 MISFET with p-type Diamond for Ultra-Low Ron,sp</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>TCAD Demonstration of a High-Voltage Lateral Double-RESURF-VLD β-Ga2O3 MISFET with p-type Diamond for Ultra-Low Ron,sp</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>The Electrochemical Society</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>ECS Journal of Solid State Science and Technology</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Xu, Fan; Dai, Ming; Duan, JunFeng; Zhu, Shengnan; Qiao, Yuan; Yi, Bo; Cheng, Junji; Yang, Hongqiang</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>10.1149/2162-8777/ae3fce</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1149/2162-8777/ae3fce</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>TCAD Demonstration of a High-Voltage Lateral Double-RESURF-VLD β-Ga2O3 MISFET with p-type Diamond for Ultra-Low Ron,sp</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>TCAD Demonstration of a High-Voltage Lateral Double-RESURF-VLD β-Ga2O3 MISFET with p-type Diamond for Ultra-Low Ron,sp</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>The Electrochemical Society</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>ECS Journal of Solid State Science and Technology</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Xu, Fan; Dai, Ming; Duan, JunFeng; Zhu, Shengnan; Qiao, Yuan; Yi, Bo; Cheng, Junji; Yang, Hongqiang</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>10.1149/2162-8777/ae3fce</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1149/2162-8777/ae3fce</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>TCAD Demonstration of a High-Voltage Lateral Double-RESURF-VLD β-Ga2O3 MISFET with p-type Diamond for Ultra-Low Ron,sp</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>TCAD Demonstration of a High-Voltage Lateral Double-RESURF-VLD β-Ga2O3 MISFET with p-type Diamond for Ultra-Low Ron,sp</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>The Electrochemical Society</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>ECS Journal of Solid State Science and Technology</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Xu, Fan; Dai, Ming; Duan, JunFeng; Zhu, Shengnan; Qiao, Yuan; Yi, Bo; Cheng, Junji; Yang, Hongqiang</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>10.1149/2162-8777/ae3fce</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1149/2162-8777/ae3fce</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>n-FET</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>TCAD</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>Gate Stack</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>TCAD Demonstration of a High-Voltage Lateral Double-RESURF-VLD β-Ga2O3 MISFET with p-type Diamond for Ultra-Low Ron,sp</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
